--- a/result/without_base/12/valence/s01_2.xlsx
+++ b/result/without_base/12/valence/s01_2.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.4916666746139526</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -516,7 +516,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5366666615009308</v>
+        <v>0.4449999928474426</v>
       </c>
       <c r="C2" t="n">
-        <v>20144.99544270833</v>
+        <v>41772.466796875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5468181791630659</v>
+        <v>0.5675000087781386</v>
       </c>
       <c r="E2" t="n">
-        <v>20144.58735795454</v>
+        <v>41767.03444602273</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5883333285649618</v>
+        <v>0.4700000137090683</v>
       </c>
       <c r="C3" t="n">
-        <v>19377.619140625</v>
+        <v>41016.458984375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5706060596487739</v>
+        <v>0.5839772820472717</v>
       </c>
       <c r="E3" t="n">
-        <v>19377.25310724432</v>
+        <v>41013.04261363636</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4999999900658925</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>18641.3046875</v>
+        <v>40268.408203125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5727272765202955</v>
+        <v>0.6178409132090482</v>
       </c>
       <c r="E4" t="n">
-        <v>18640.64142400568</v>
+        <v>40265.19353693182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5125000029802322</v>
       </c>
       <c r="C5" t="n">
-        <v>17929.771484375</v>
+        <v>39531.373046875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6090909134257924</v>
+        <v>0.6367045370015231</v>
       </c>
       <c r="E5" t="n">
-        <v>17929.1728515625</v>
+        <v>39527.08487215909</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5316666563351949</v>
+        <v>0.5175000131130219</v>
       </c>
       <c r="C6" t="n">
-        <v>17245.79361979167</v>
+        <v>38805.18359375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6366666663776744</v>
+        <v>0.6339772722937844</v>
       </c>
       <c r="E6" t="n">
-        <v>17244.47682883523</v>
+        <v>38800.68501420454</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5874999761581421</v>
       </c>
       <c r="C7" t="n">
-        <v>16586.158203125</v>
+        <v>38086.875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6298484910618175</v>
+        <v>0.6747727285731923</v>
       </c>
       <c r="E7" t="n">
-        <v>16584.95197088068</v>
+        <v>38082.42400568182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6116666595141093</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C8" t="n">
-        <v>15949.81575520833</v>
+        <v>37378.755859375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6512121205980127</v>
+        <v>0.7022727294401689</v>
       </c>
       <c r="E8" t="n">
-        <v>15948.7822265625</v>
+        <v>37373.99893465909</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.546666661898295</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C9" t="n">
-        <v>15337.46614583333</v>
+        <v>36683.62890625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6475757550109517</v>
+        <v>0.6985227248885415</v>
       </c>
       <c r="E9" t="n">
-        <v>15336.2782759233</v>
+        <v>36678.00426136364</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5316666662693024</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C10" t="n">
-        <v>14747.20572916667</v>
+        <v>35996.435546875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6742424314672296</v>
+        <v>0.7237500006502325</v>
       </c>
       <c r="E10" t="n">
-        <v>14745.95299183239</v>
+        <v>35991.65056818182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5733333230018616</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C11" t="n">
-        <v>14178.09244791667</v>
+        <v>35323.19140625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.706060610034249</v>
+        <v>0.7304545424201272</v>
       </c>
       <c r="E11" t="n">
-        <v>14177.00408380682</v>
+        <v>35317.11931818182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5899999936421713</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C12" t="n">
-        <v>13630.673828125</v>
+        <v>34657.48046875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.692272730849006</v>
+        <v>0.7398863705721769</v>
       </c>
       <c r="E12" t="n">
-        <v>13629.46395596591</v>
+        <v>34652.84410511364</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C13" t="n">
-        <v>13103.69856770833</v>
+        <v>34004.087890625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6969697014852003</v>
+        <v>0.7530681761828336</v>
       </c>
       <c r="E13" t="n">
-        <v>13101.91787997159</v>
+        <v>33999.81178977273</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5999999841054281</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C14" t="n">
-        <v>12594.69661458333</v>
+        <v>33362.326171875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7362121181054548</v>
+        <v>0.7661363645033403</v>
       </c>
       <c r="E14" t="n">
-        <v>12593.43172940341</v>
+        <v>33357.31924715909</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5766666730244955</v>
+        <v>0.6075000166893005</v>
       </c>
       <c r="C15" t="n">
-        <v>12105.05826822917</v>
+        <v>32731.255859375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7451515170660886</v>
+        <v>0.7797727313908663</v>
       </c>
       <c r="E15" t="n">
-        <v>12103.80699573864</v>
+        <v>32725.62571022727</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.578333338101705</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C16" t="n">
-        <v>11633.79524739583</v>
+        <v>32110.0830078125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7483333349227905</v>
+        <v>0.7771590839732777</v>
       </c>
       <c r="E16" t="n">
-        <v>11632.22802734375</v>
+        <v>32104.92578125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4949999849001567</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C17" t="n">
-        <v>11179.62923177083</v>
+        <v>31500.17578125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7484848445112054</v>
+        <v>0.7721590941602533</v>
       </c>
       <c r="E17" t="n">
-        <v>11177.9481977983</v>
+        <v>31495.08114346591</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5633333325386047</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C18" t="n">
-        <v>10741.77376302083</v>
+        <v>30899.455078125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7645454542203383</v>
+        <v>0.8127272779291327</v>
       </c>
       <c r="E18" t="n">
-        <v>10740.45365767045</v>
+        <v>30894.51580255682</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5566666722297668</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C19" t="n">
-        <v>10320.53287760417</v>
+        <v>30310.0712890625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7686363648284565</v>
+        <v>0.8121590885249051</v>
       </c>
       <c r="E19" t="n">
-        <v>10319.14608487216</v>
+        <v>30305.07901278409</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5949999888737997</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C20" t="n">
-        <v>9914.691080729166</v>
+        <v>29730.7978515625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7663636370138689</v>
+        <v>0.8354545506564054</v>
       </c>
       <c r="E20" t="n">
-        <v>9913.44864169034</v>
+        <v>29725.62677556818</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.504999985297521</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C21" t="n">
-        <v>9524.1669921875</v>
+        <v>29161.2138671875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7660606097091328</v>
+        <v>0.8392045443708246</v>
       </c>
       <c r="E21" t="n">
-        <v>9522.7138671875</v>
+        <v>29156.61186079546</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5366666714350382</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C22" t="n">
-        <v>9147.9482421875</v>
+        <v>28602.2685546875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.736212120814757</v>
+        <v>0.8426136428659613</v>
       </c>
       <c r="E22" t="n">
-        <v>9146.671564275568</v>
+        <v>28597.39879261364</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4866666495800018</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C23" t="n">
-        <v>8785.316731770834</v>
+        <v>28052.91796875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7656060619787737</v>
+        <v>0.849772724238309</v>
       </c>
       <c r="E23" t="n">
-        <v>8784.166770241478</v>
+        <v>28048.12872869318</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.550000011920929</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C24" t="n">
-        <v>8436.287109375</v>
+        <v>27513.3154296875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7928787822073157</v>
+        <v>0.8501136357134039</v>
       </c>
       <c r="E24" t="n">
-        <v>8435.2001953125</v>
+        <v>27508.47975852273</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5266666611035665</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C25" t="n">
-        <v>8100.84228515625</v>
+        <v>26983.1943359375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7562121207063849</v>
+        <v>0.8478409051895142</v>
       </c>
       <c r="E25" t="n">
-        <v>8099.549005681818</v>
+        <v>26978.51189630682</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C26" t="n">
-        <v>7777.425618489583</v>
+        <v>26463.03125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7209090942686255</v>
+        <v>0.8386363712224093</v>
       </c>
       <c r="E26" t="n">
-        <v>7776.287220348011</v>
+        <v>26458.05397727273</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5149999956289927</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C27" t="n">
-        <v>7465.815266927083</v>
+        <v>25951.181640625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7977272678505291</v>
+        <v>0.8677272688258778</v>
       </c>
       <c r="E27" t="n">
-        <v>7464.697376598011</v>
+        <v>25946.5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.501666655143102</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C28" t="n">
-        <v>7166.2060546875</v>
+        <v>25448.5390625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7754545428536155</v>
+        <v>0.8867045424201272</v>
       </c>
       <c r="E28" t="n">
-        <v>7165.166481711648</v>
+        <v>25444.13139204546</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5200000007947286</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C29" t="n">
-        <v>6877.837239583333</v>
+        <v>24955.0888671875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7924242344769564</v>
+        <v>0.891818182034926</v>
       </c>
       <c r="E29" t="n">
-        <v>6876.700506036932</v>
+        <v>24950.88068181818</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6049999992052714</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C30" t="n">
-        <v>6600.2470703125</v>
+        <v>24470.7060546875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7404545464298942</v>
+        <v>0.8812499913302335</v>
       </c>
       <c r="E30" t="n">
-        <v>6599.318204012784</v>
+        <v>24466.51029829546</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5083333353201548</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C31" t="n">
-        <v>6332.92138671875</v>
+        <v>23995.4921875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7927272699095986</v>
+        <v>0.8786363655870612</v>
       </c>
       <c r="E31" t="n">
-        <v>6331.921630859375</v>
+        <v>23990.92063210227</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5266666611035665</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C32" t="n">
-        <v>6075.838704427083</v>
+        <v>23527.87109375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7777272733775052</v>
+        <v>0.8984090902588584</v>
       </c>
       <c r="E32" t="n">
-        <v>6074.885897549716</v>
+        <v>23523.68874289773</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5133333404858907</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C33" t="n">
-        <v>5828.46630859375</v>
+        <v>23069.6318359375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7587878731164065</v>
+        <v>0.8931818116794933</v>
       </c>
       <c r="E33" t="n">
-        <v>5827.577658913352</v>
+        <v>23065.04456676136</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C34" t="n">
-        <v>5590.392903645833</v>
+        <v>22619.2421875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7896969616413116</v>
+        <v>0.8819318142804232</v>
       </c>
       <c r="E34" t="n">
-        <v>5589.478604403409</v>
+        <v>22614.73561789773</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5766666531562805</v>
+        <v>0.5450000166893005</v>
       </c>
       <c r="C35" t="n">
-        <v>5361.1982421875</v>
+        <v>22176.5546875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8024242384867235</v>
+        <v>0.8937500010837208</v>
       </c>
       <c r="E35" t="n">
-        <v>5360.399303089489</v>
+        <v>22172.50727982954</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5333333412806193</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="C36" t="n">
-        <v>5140.830403645833</v>
+        <v>21742.15625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7846969718282873</v>
+        <v>0.9156818173148416</v>
       </c>
       <c r="E36" t="n">
-        <v>5140.098033558239</v>
+        <v>21738.19850852273</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5566666722297668</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C37" t="n">
-        <v>4928.931315104167</v>
+        <v>21315.9541015625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7942424281076952</v>
+        <v>0.9172727303071455</v>
       </c>
       <c r="E37" t="n">
-        <v>4928.14579634233</v>
+        <v>21311.9140625</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4699999888737996</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C38" t="n">
-        <v>4725.447591145833</v>
+        <v>20897.5693359375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7165151536464691</v>
+        <v>0.8892045346173373</v>
       </c>
       <c r="E38" t="n">
-        <v>4724.52803178267</v>
+        <v>20893.51012073864</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5216666460037231</v>
+        <v>0.5200000107288361</v>
       </c>
       <c r="C39" t="n">
-        <v>4529.028645833333</v>
+        <v>20486.5439453125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7669696916233409</v>
+        <v>0.9048863595182245</v>
       </c>
       <c r="E39" t="n">
-        <v>4528.288463245739</v>
+        <v>20482.57262073864</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5166666706403097</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C40" t="n">
-        <v>4340.3271484375</v>
+        <v>20082.9365234375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7924242371862585</v>
+        <v>0.9132954532449896</v>
       </c>
       <c r="E40" t="n">
-        <v>4339.672252308239</v>
+        <v>20079.17329545454</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C41" t="n">
-        <v>4159.20654296875</v>
+        <v>19686.705078125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7442424243146722</v>
+        <v>0.9268181757493452</v>
       </c>
       <c r="E41" t="n">
-        <v>4158.5205078125</v>
+        <v>19683.13938210227</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5149999956289927</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C42" t="n">
-        <v>3985.085123697917</v>
+        <v>19297.9951171875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7053030295805498</v>
+        <v>0.9302272796630859</v>
       </c>
       <c r="E42" t="n">
-        <v>3984.336858575994</v>
+        <v>19294.39098011364</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5033333202203115</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C43" t="n">
-        <v>3817.389811197917</v>
+        <v>18916.0712890625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7110606133937836</v>
+        <v>0.9269318092953075</v>
       </c>
       <c r="E43" t="n">
-        <v>3816.731389825994</v>
+        <v>18912.78000710227</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4849999944368998</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C44" t="n">
-        <v>3656.458251953125</v>
+        <v>18541.744140625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6657575775276531</v>
+        <v>0.9297727292234247</v>
       </c>
       <c r="E44" t="n">
-        <v>3655.772871537642</v>
+        <v>18538.14009232954</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5183333357175192</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C45" t="n">
-        <v>3501.313313802083</v>
+        <v>18173.359375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7501515095884149</v>
+        <v>0.9257954521612688</v>
       </c>
       <c r="E45" t="n">
-        <v>3500.690196644176</v>
+        <v>18170.43110795454</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5916666785875956</v>
+        <v>0.5874999761581421</v>
       </c>
       <c r="C46" t="n">
-        <v>3352.62890625</v>
+        <v>17812.6884765625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7340909107164904</v>
+        <v>0.9321590932932767</v>
       </c>
       <c r="E46" t="n">
-        <v>3352.069491299716</v>
+        <v>17809.46750710227</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5133333404858907</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C47" t="n">
-        <v>3209.650227864583</v>
+        <v>17458.6845703125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7553030279549685</v>
+        <v>0.9269318201325156</v>
       </c>
       <c r="E47" t="n">
-        <v>3209.000909978693</v>
+        <v>17455.18146306818</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5716666579246521</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C48" t="n">
-        <v>3072.098470052083</v>
+        <v>17110.67578125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7571212134578011</v>
+        <v>0.9323863712224093</v>
       </c>
       <c r="E48" t="n">
-        <v>3071.679343483665</v>
+        <v>17107.37855113636</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5483333071072897</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C49" t="n">
-        <v>2940.175374348958</v>
+        <v>16769.259765625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7633333341641859</v>
+        <v>0.9406818151473999</v>
       </c>
       <c r="E49" t="n">
-        <v>2939.738469904119</v>
+        <v>16766.01384943182</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5416666567325592</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C50" t="n">
-        <v>2813.654134114583</v>
+        <v>16433.9970703125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6889393952759829</v>
+        <v>0.9323863549665972</v>
       </c>
       <c r="E50" t="n">
-        <v>2813.250510475852</v>
+        <v>16431.00994318182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5366666714350382</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C51" t="n">
-        <v>2692.063313802083</v>
+        <v>16105.06005859375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7478787899017334</v>
+        <v>0.9257954521612688</v>
       </c>
       <c r="E51" t="n">
-        <v>2691.482599431818</v>
+        <v>16102.17444957386</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5366666515668234</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C52" t="n">
-        <v>2575.184977213542</v>
+        <v>15782.3369140625</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7145454585552216</v>
+        <v>0.9292045452378013</v>
       </c>
       <c r="E52" t="n">
-        <v>2574.71572043679</v>
+        <v>15779.39772727273</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5000000099341074</v>
+        <v>0.5849999785423279</v>
       </c>
       <c r="C53" t="n">
-        <v>2463.287434895833</v>
+        <v>15465.357421875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6450000053102319</v>
+        <v>0.9380681839856234</v>
       </c>
       <c r="E53" t="n">
-        <v>2462.733453924006</v>
+        <v>15462.63831676136</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.603333314259847</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C54" t="n">
-        <v>2355.109212239583</v>
+        <v>15154.662109375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7342424284328114</v>
+        <v>0.9380681839856234</v>
       </c>
       <c r="E54" t="n">
-        <v>2354.805197975852</v>
+        <v>15151.76225142045</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4850000143051147</v>
+        <v>0.5425000190734863</v>
       </c>
       <c r="C55" t="n">
-        <v>2252.152099609375</v>
+        <v>14849.66796875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6507575755769556</v>
+        <v>0.9117045456712897</v>
       </c>
       <c r="E55" t="n">
-        <v>2251.641246448864</v>
+        <v>14846.72931463068</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5200000007947286</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C56" t="n">
-        <v>2152.5830078125</v>
+        <v>14550.0576171875</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7201515165242282</v>
+        <v>0.9236363660205494</v>
       </c>
       <c r="E56" t="n">
-        <v>2152.245261452415</v>
+        <v>14547.29039417614</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.596666673819224</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C57" t="n">
-        <v>2057.330810546875</v>
+        <v>14256.0849609375</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7134848453781821</v>
+        <v>0.9332954504273154</v>
       </c>
       <c r="E57" t="n">
-        <v>2057.072398792614</v>
+        <v>14253.45623224432</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5666666428248087</v>
+        <v>0.5450000166893005</v>
       </c>
       <c r="C58" t="n">
-        <v>1966.08056640625</v>
+        <v>13967.80078125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6812121217901056</v>
+        <v>0.9251136400482871</v>
       </c>
       <c r="E58" t="n">
-        <v>1965.821805087003</v>
+        <v>13965.17471590909</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5183333158493042</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C59" t="n">
-        <v>1878.456136067708</v>
+        <v>13684.77734375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7180303091352637</v>
+        <v>0.931931815364144</v>
       </c>
       <c r="E59" t="n">
-        <v>1878.118707830256</v>
+        <v>13682.18545809659</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.446666677792867</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C60" t="n">
-        <v>1795.216837565104</v>
+        <v>13407.111328125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5687878687273372</v>
+        <v>0.9372727220708673</v>
       </c>
       <c r="E60" t="n">
-        <v>1794.742165305398</v>
+        <v>13404.52290482955</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5083333452542623</v>
+        <v>0.5849999785423279</v>
       </c>
       <c r="C61" t="n">
-        <v>1714.015258789062</v>
+        <v>13134.33349609375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6231818158518184</v>
+        <v>0.9143181822516702</v>
       </c>
       <c r="E61" t="n">
-        <v>1713.734003240412</v>
+        <v>13132.13130326705</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.52333332101504</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="C62" t="n">
-        <v>1636.616129557292</v>
+        <v>12867.0390625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6874242424964905</v>
+        <v>0.9443181807344611</v>
       </c>
       <c r="E62" t="n">
-        <v>1636.341369628906</v>
+        <v>12864.71786221591</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5616666674613953</v>
+        <v>0.5625</v>
       </c>
       <c r="C63" t="n">
-        <v>1562.566487630208</v>
+        <v>12604.87744140625</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6334848458116705</v>
+        <v>0.9295454621315002</v>
       </c>
       <c r="E63" t="n">
-        <v>1562.384826660156</v>
+        <v>12602.44513494318</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5633333325386047</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C64" t="n">
-        <v>1491.485921223958</v>
+        <v>12347.50439453125</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6672727330164476</v>
+        <v>0.8947727246717974</v>
       </c>
       <c r="E64" t="n">
-        <v>1491.343827681108</v>
+        <v>12345.13423295455</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5716666579246521</v>
+        <v>0.6124999821186066</v>
       </c>
       <c r="C65" t="n">
-        <v>1423.599080403646</v>
+        <v>12094.76806640625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6443939425728538</v>
+        <v>0.9307954582301053</v>
       </c>
       <c r="E65" t="n">
-        <v>1423.407359730114</v>
+        <v>12092.49715909091</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.625</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C66" t="n">
-        <v>1358.372192382812</v>
+        <v>11846.7099609375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.60787879336964</v>
+        <v>0.9398863586512479</v>
       </c>
       <c r="E66" t="n">
-        <v>1358.316395152699</v>
+        <v>11844.68536931818</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5083333253860474</v>
+        <v>0.570000022649765</v>
       </c>
       <c r="C67" t="n">
-        <v>1295.936889648438</v>
+        <v>11603.96728515625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6660606048323892</v>
+        <v>0.9255681796507402</v>
       </c>
       <c r="E67" t="n">
-        <v>1295.773886940696</v>
+        <v>11601.6103515625</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C68" t="n">
-        <v>1236.151000976562</v>
+        <v>11365.09912109375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6628787896849893</v>
+        <v>0.9390909075737</v>
       </c>
       <c r="E68" t="n">
-        <v>1236.013843883168</v>
+        <v>11363.06756036932</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4899999996026357</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C69" t="n">
-        <v>1179.058797200521</v>
+        <v>11131.2265625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6289393888278441</v>
+        <v>0.918295453895222</v>
       </c>
       <c r="E69" t="n">
-        <v>1178.872519753196</v>
+        <v>11129.125</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5133333206176758</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C70" t="n">
-        <v>1124.204752604167</v>
+        <v>10901.51611328125</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6504545428536155</v>
+        <v>0.9189772822640159</v>
       </c>
       <c r="E70" t="n">
-        <v>1124.053411310369</v>
+        <v>10899.54483309659</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5566666722297668</v>
+        <v>0.5775000154972076</v>
       </c>
       <c r="C71" t="n">
-        <v>1071.706746419271</v>
+        <v>10676.361328125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6404545469717546</v>
+        <v>0.9473863514986905</v>
       </c>
       <c r="E71" t="n">
-        <v>1071.606328790838</v>
+        <v>10674.27086292614</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.498333324988683</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C72" t="n">
-        <v>1021.620971679688</v>
+        <v>10455.60791015625</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6151515137065541</v>
+        <v>0.9226136424324729</v>
       </c>
       <c r="E72" t="n">
-        <v>1021.476887096058</v>
+        <v>10453.38227982955</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4616666634877523</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="C73" t="n">
-        <v>973.7341918945312</v>
+        <v>10238.36376953125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5707575705918398</v>
+        <v>0.9371590885249051</v>
       </c>
       <c r="E73" t="n">
-        <v>973.5732976740056</v>
+        <v>10236.60227272727</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5416666567325592</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C74" t="n">
-        <v>927.6457112630209</v>
+        <v>10025.89794921875</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6130303008989855</v>
+        <v>0.9332954558459196</v>
       </c>
       <c r="E74" t="n">
-        <v>927.5633877840909</v>
+        <v>10023.99618252841</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5200000007947286</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C75" t="n">
-        <v>883.7904459635416</v>
+        <v>9817.25537109375</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6230303049087524</v>
+        <v>0.905909083106301</v>
       </c>
       <c r="E75" t="n">
-        <v>883.6473915793679</v>
+        <v>9815.51162997159</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5200000007947286</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C76" t="n">
-        <v>841.767822265625</v>
+        <v>9612.72900390625</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6153030287135731</v>
+        <v>0.9286363612521779</v>
       </c>
       <c r="E76" t="n">
-        <v>841.6526239568537</v>
+        <v>9610.894708806818</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5516666571299235</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C77" t="n">
-        <v>801.5942789713541</v>
+        <v>9411.73388671875</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6321212161671032</v>
+        <v>0.9375</v>
       </c>
       <c r="E77" t="n">
-        <v>801.5268859863281</v>
+        <v>9410.213156960228</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6016666690508524</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C78" t="n">
-        <v>763.2211303710938</v>
+        <v>9215.04345703125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.638787876475941</v>
+        <v>0.9273863651535728</v>
       </c>
       <c r="E78" t="n">
-        <v>763.1834411621094</v>
+        <v>9213.43954190341</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5449999968210856</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C79" t="n">
-        <v>726.6445719401041</v>
+        <v>9022.05078125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6290909106081183</v>
+        <v>0.9430681737986478</v>
       </c>
       <c r="E79" t="n">
-        <v>726.5633350719105</v>
+        <v>9020.382279829546</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5849999984105428</v>
+        <v>0.6324999928474426</v>
       </c>
       <c r="C80" t="n">
-        <v>691.6829833984375</v>
+        <v>8832.77294921875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5543939362872731</v>
+        <v>0.9328409108248624</v>
       </c>
       <c r="E80" t="n">
-        <v>691.6679632013494</v>
+        <v>8831.064275568182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4916666746139526</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C81" t="n">
-        <v>658.2796630859375</v>
+        <v>8647.2568359375</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5719696879386902</v>
+        <v>0.9162500067190691</v>
       </c>
       <c r="E81" t="n">
-        <v>658.2119251598011</v>
+        <v>8645.4052734375</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C2" t="n">
         <v>0.008333333333333333</v>
@@ -1973,51 +1973,51 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C7" t="n">
         <v>0.05833333333333333</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.025</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C8" t="n">
         <v>0.05833333333333333</v>
@@ -2036,824 +2036,824 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.025</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.175</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.175</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.075</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.075</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.225</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C21" t="n">
-        <v>0.275</v>
+        <v>0.1583333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C22" t="n">
-        <v>0.275</v>
+        <v>0.1583333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.325</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C26" t="n">
-        <v>0.325</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.35</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C28" t="n">
-        <v>0.35</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.175</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.175</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.15</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.15</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.175</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.175</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.2583333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.2583333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.225</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.225</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C39" t="n">
-        <v>0.45</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.225</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C40" t="n">
-        <v>0.45</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.225</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.3416666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.3416666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.3583333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.3583333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.325</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.325</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.35</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.35</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.55</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.55</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.425</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.425</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C61" t="n">
-        <v>0.575</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.375</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C62" t="n">
-        <v>0.575</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.375</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C69" t="n">
-        <v>0.625</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.45</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C70" t="n">
-        <v>0.625</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.45</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.475</v>
+        <v>0.525</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.475</v>
+        <v>0.525</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6416666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6416666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C79" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.525</v>
+        <v>0.575</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C80" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.525</v>
+        <v>0.575</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.55</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.55</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C83" t="n">
         <v>0.6916666666666667</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C84" t="n">
         <v>0.6916666666666667</v>
@@ -2872,409 +2872,409 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.575</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.575</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C89" t="n">
-        <v>0.725</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C90" t="n">
-        <v>0.725</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.7</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.7</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7833333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7833333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C105" t="n">
-        <v>0.85</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C106" t="n">
-        <v>0.85</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.775</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.775</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8083333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8083333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>0.85</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>0.85</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3282,10 +3282,10 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3293,86 +3293,42 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C125" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C126" t="n">
-        <v>0.975</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,7 +3343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3411,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C2" t="n">
         <v>0.008333333333333333</v>
@@ -3422,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C3" t="n">
         <v>0.01666666666666667</v>
@@ -3430,10 +3386,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C4" t="n">
         <v>0.01666666666666667</v>
@@ -3441,296 +3397,296 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.025</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.025</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.025</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.025</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.15</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.175</v>
+        <v>0.1916666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.175</v>
+        <v>0.1916666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.225</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2583333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.15</v>
+        <v>0.225</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2583333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.15</v>
+        <v>0.225</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C31" t="n">
         <v>0.3083333333333333</v>
@@ -3738,10 +3694,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C32" t="n">
         <v>0.3083333333333333</v>
@@ -3749,10 +3705,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C33" t="n">
         <v>0.3333333333333333</v>
@@ -3760,10 +3716,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C34" t="n">
         <v>0.3333333333333333</v>
@@ -3771,10 +3727,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C35" t="n">
         <v>0.3416666666666667</v>
@@ -3782,10 +3738,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.275</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C36" t="n">
         <v>0.3416666666666667</v>
@@ -3793,10 +3749,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.275</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C37" t="n">
         <v>0.35</v>
@@ -3804,10 +3760,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C38" t="n">
         <v>0.35</v>
@@ -3815,10 +3771,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C39" t="n">
         <v>0.3583333333333333</v>
@@ -3826,10 +3782,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C40" t="n">
         <v>0.3583333333333333</v>
@@ -3837,472 +3793,472 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.375</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.275</v>
+        <v>0.3</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C42" t="n">
-        <v>0.375</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.275</v>
+        <v>0.3</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C45" t="n">
-        <v>0.425</v>
+        <v>0.4083333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C46" t="n">
-        <v>0.425</v>
+        <v>0.4083333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C49" t="n">
-        <v>0.45</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.45</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C51" t="n">
-        <v>0.475</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.325</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C52" t="n">
-        <v>0.475</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.325</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.425</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.425</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C59" t="n">
-        <v>0.525</v>
+        <v>0.4916666666666666</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C60" t="n">
-        <v>0.525</v>
+        <v>0.4916666666666666</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C61" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C62" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C69" t="n">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.425</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C70" t="n">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.425</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C75" t="n">
-        <v>0.65</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.65</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6416666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6416666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C79" t="n">
-        <v>0.675</v>
+        <v>0.6916666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C80" t="n">
-        <v>0.675</v>
+        <v>0.6916666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.5</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.5</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C83" t="n">
         <v>0.7083333333333334</v>
@@ -4310,10 +4266,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C84" t="n">
         <v>0.7083333333333334</v>
@@ -4321,120 +4277,120 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C87" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C88" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.725</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.725</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C91" t="n">
-        <v>0.775</v>
+        <v>0.7833333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.55</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C92" t="n">
-        <v>0.775</v>
+        <v>0.7833333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.55</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.775</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.775</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C95" t="n">
         <v>0.8166666666666667</v>
@@ -4442,10 +4398,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C96" t="n">
         <v>0.8166666666666667</v>
@@ -4453,10 +4409,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C97" t="n">
         <v>0.825</v>
@@ -4464,10 +4420,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C98" t="n">
         <v>0.825</v>
@@ -4475,353 +4431,309 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C99" t="n">
-        <v>0.85</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C100" t="n">
-        <v>0.85</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C103" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.65</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.65</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.675</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.675</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.85</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.85</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.725</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.725</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.775</v>
+        <v>0.875</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0.775</v>
+        <v>0.875</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C115" t="n">
-        <v>0.925</v>
+        <v>0.9083333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C116" t="n">
-        <v>0.925</v>
+        <v>0.9083333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>0.85</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>0.85</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.95</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.95</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C123" t="n">
-        <v>0.975</v>
+        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C124" t="n">
-        <v>0.975</v>
+        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6338194444444445</v>
+        <v>0.548125</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9916666666666667</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9916666666666667</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.6338194444444445</v>
-      </c>
-      <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
